--- a/Resum 2020 - 2021.xlsx
+++ b/Resum 2020 - 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rubén\Dropbox\Estudi d'oferta\2023\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCC3491-3A17-43BC-9107-C69396E2D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1161ABE7-4B36-41B8-885B-AC0BADEA43CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4140" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nombre" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="243">
   <si>
     <t>Arenys de Mar</t>
   </si>
@@ -763,6 +763,12 @@
   <si>
     <t>Falset</t>
   </si>
+  <si>
+    <t>Ràpita, la</t>
+  </si>
+  <si>
+    <t>Calonge i Sant Antoni</t>
+  </si>
 </sst>
 </file>
 
@@ -16346,7 +16352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AO88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -36546,8 +36552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AO111"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -43508,7 +43514,7 @@
     </row>
     <row r="61" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="B61" s="16">
         <v>122</v>
@@ -43547,7 +43553,7 @@
         <v>3686.2260122087141</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="P61" s="16">
         <v>141</v>
@@ -43586,7 +43592,7 @@
         <v>3759.6899327072442</v>
       </c>
       <c r="AC61" s="12" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="AD61" s="16">
         <v>19</v>
@@ -48746,7 +48752,7 @@
     </row>
     <row r="105" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="B105" s="16">
         <v>22</v>
@@ -48785,7 +48791,7 @@
         <v>1161.6863452864729</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="P105" s="16">
         <v>27</v>
@@ -48824,7 +48830,7 @@
         <v>1473.3839843961878</v>
       </c>
       <c r="AC105" s="12" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="AD105" s="16">
         <v>5</v>
